--- a/db/jqp_test.xlsx
+++ b/db/jqp_test.xlsx
@@ -162,7 +162,7 @@
     <t>TeamServer.exe</t>
   </si>
   <si>
-    <t>['20001', '20002', '20003', '20004', '20005', '20006', '20007', '20008', '20009', '20010', '20011', '20012', '20013', '20014', '20015', '20016', '20017', '20018', '20019', '20020', '20021', '20022', '20023', '20024', '20025', '20026', '20027']</t>
+    <t>['1 20001', '2 20002', '3 20003', '4 20004', '5 20005', '6 20006', '7 20007', '8 20008', '9 20009', '10 20010', '11 20011', '12 20012', '13 20013', '14 20014', '15 20015', '16 20016', '17 20017', '18 20018', '19 20019', '20 20020', '21 20021', '22 20022', '23 20023', '24 20024', '25 20025', '26 20026', '27 20027']</t>
   </si>
   <si>
     <t>比赛管理服务器</t>
@@ -1695,8 +1695,8 @@
   <sheetPr/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37" defaultRowHeight="17" customHeight="1" outlineLevelCol="7"/>
@@ -1706,7 +1706,7 @@
     <col min="3" max="3" width="53.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16383" width="37" style="1" customWidth="1"/>
